--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/15/seed2/result_data_KNN.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.688</v>
+        <v>-12.294</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.94</v>
+        <v>-21.945</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.67</v>
+        <v>-21.715</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.788</v>
+        <v>-19.998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.566</v>
+        <v>-19.945</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.578</v>
+        <v>-21.775</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.876</v>
+        <v>-13.241</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.574</v>
+        <v>-21.351</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.964</v>
+        <v>-13.055</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.532</v>
+        <v>-21.284</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.982</v>
+        <v>-13.002</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.514</v>
+        <v>-12.559</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-10.792</v>
+        <v>-11.1</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.154</v>
+        <v>-11.152</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.284</v>
+        <v>-11.601</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.804</v>
+        <v>-21.931</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.484</v>
+        <v>-13.513</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.772</v>
+        <v>-13.222</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.086</v>
+        <v>-22.095</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.132</v>
+        <v>-13.58</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.314</v>
+        <v>-22.407</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.718</v>
+        <v>-21.656</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.364</v>
+        <v>-12.601</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.148</v>
+        <v>-21.141</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.886</v>
+        <v>-21.938</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.016</v>
+        <v>-10.857</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.142</v>
+        <v>-12.482</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.516</v>
+        <v>-21.509</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.452</v>
+        <v>-11.087</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-22.028</v>
+        <v>-21.519</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
